--- a/bom/BOM_Frame_ElecExt.xlsx
+++ b/bom/BOM_Frame_ElecExt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{49694D92-D7C5-4173-AF81-0D1587F27671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9E01369B-7353-4C24-A390-20D9FA9C171F}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{49694D92-D7C5-4173-AF81-0D1587F27671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B9C8DDA-BB53-4B9E-9914-CCEFF5194F20}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="78">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -50,243 +50,162 @@
     <t>ID</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>VFL</t>
   </si>
   <si>
     <t>e16f1780a2ab44908167b041033f4867</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>VFR</t>
   </si>
   <si>
     <t>9dbfcc793e57401dbc5d8c3a165629aa</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>VBR</t>
   </si>
   <si>
     <t>851924d309024d4881dbc6202dd92835</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>VBL</t>
   </si>
   <si>
     <t>913dcd58f877466ca2115e21970496d3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>HHR</t>
   </si>
   <si>
     <t>a9d8d4d62253419fba42b78b18fc3115</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>HHF</t>
   </si>
   <si>
     <t>f3aff9cd84f94bf38bcc1a8787f28b4a</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>HHL</t>
   </si>
   <si>
     <t>cafc665090094b37bc9eb55eb999c8d3</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>HHB</t>
   </si>
   <si>
     <t>f3cf88d683b04198bbf3ec0fc7c6c422</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>HMB</t>
   </si>
   <si>
     <t>131fce0417e84698877a6afd1174d132</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>HML</t>
   </si>
   <si>
     <t>7adf5e22c9e944deab7a9d80024d4ad4</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>HLL</t>
   </si>
   <si>
     <t>13b794fc16144537bb135fa4b246a462</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>HMR</t>
   </si>
   <si>
     <t>b1a26e71638f454eaf5945dd61bbdc1d</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>XVF</t>
   </si>
   <si>
     <t>8e28bbd0d41f4161ae56ed39436019be</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>XHLF</t>
   </si>
   <si>
     <t>0dfcb57859de405aa2f530249043077d</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>XHLR</t>
   </si>
   <si>
     <t>34ebf6dad67e466f978d832905715001</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>XHH</t>
   </si>
   <si>
     <t>437696d7e7ab4182bd6d9cc44cca5922</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>HLR</t>
   </si>
   <si>
     <t>2c5e06e0a2e341668c8a8c5105c85aa2</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>XHLB</t>
   </si>
   <si>
     <t>fe8b5a7384764aeb8219ce7cad59f425</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>XHHB</t>
   </si>
   <si>
     <t>b4011d4007764c13b96056c8af2f5799</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>XVBR</t>
   </si>
   <si>
     <t>caca50aa5bb94685a474995c3efc73b3</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>XHHF</t>
   </si>
   <si>
     <t>b50b5bdd6b4f47afb7a764ba1bf2e0d7</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>HLB</t>
   </si>
   <si>
     <t>44dc136cfa534a2a9f48df63eda548cb</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>HLF</t>
   </si>
   <si>
     <t>210d71f154344cc980e554c3b974bf34</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>VFL_ZRail (1)</t>
   </si>
   <si>
     <t>55a46ec749824722ab0f340e0def5506</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>VFR_ZRail (1)</t>
   </si>
   <si>
     <t>3a70420efa8e4a4fb2c6b9a977056982</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>VRR_ZRail</t>
   </si>
   <si>
     <t>830f035c518a400e885dea3200d50878</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>3030_Double_CornerBracket_Body</t>
   </si>
   <si>
@@ -299,9 +218,6 @@
     <t>90868b020511444fa6a37e9339212b30</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>M6_TSlot_Nut</t>
   </si>
   <si>
@@ -311,9 +227,6 @@
     <t>d318404ab0d6472dbc9eb43ee8c0e069</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>M6X12_ButtonHeadScrew_91239A318</t>
   </si>
   <si>
@@ -323,9 +236,6 @@
     <t>91c39ac921514f4cbdcb3859ad08b813</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>3030_int_L_joint</t>
   </si>
   <si>
@@ -335,9 +245,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>Part Description</t>
   </si>
   <si>
@@ -354,13 +261,16 @@
   </si>
   <si>
     <t>Hardware</t>
+  </si>
+  <si>
+    <t>Length defined by Frame Calculator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +329,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -486,10 +404,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -515,20 +434,45 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -551,13 +495,24 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <i/>
-      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -594,41 +549,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="0" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="6"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -646,15 +566,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>73025</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1158875</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -690,15 +610,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -734,15 +654,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -778,15 +698,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -822,15 +742,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -866,15 +786,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -910,15 +830,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -954,15 +874,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -998,15 +918,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1042,15 +962,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1086,15 +1006,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1130,15 +1050,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1174,15 +1094,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1218,15 +1138,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1262,15 +1182,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1306,15 +1226,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1350,15 +1270,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1394,15 +1314,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1438,15 +1358,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1482,15 +1402,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1526,15 +1446,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1570,15 +1490,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1614,15 +1534,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1658,15 +1578,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1702,15 +1622,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1746,15 +1666,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1790,15 +1710,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1834,15 +1754,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1878,15 +1798,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1922,15 +1842,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>53975</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1139825</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1107248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1968,20 +1888,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97AA1ACC-9E1F-47B4-A27C-51BE0D5685C3}" name="Table1" displayName="Table1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6" headerRowBorderDxfId="13" tableBorderDxfId="14">
-  <autoFilter ref="A1:K31" xr:uid="{A58303E9-E1E9-4C1D-8CFA-4B939757A84D}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{177E7BDB-563F-42AB-A73C-0F99520307CA}" name="SubAssy" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{92A988A0-DA22-4149-852C-B3359F095D1F}" name="Category" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9C560CA2-4A2B-4DF8-B651-3EEEEA1CC594}" name="Item" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{46D3FBA1-E37D-4E1C-A507-269DCBB191E1}" name="Thumbnail" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{0FED2E72-CB9B-4CDA-83D8-951786FBCCFD}" name="Part Name" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{343B71DE-212D-4AC6-BA7B-E87A0ED6CF7E}" name="Part Description" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{97AA1ACC-9E1F-47B4-A27C-51BE0D5685C3}" name="Table1" displayName="Table1" ref="A1:J31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+  <autoFilter ref="A1:J31" xr:uid="{A58303E9-E1E9-4C1D-8CFA-4B939757A84D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
+    <sortCondition descending="1" ref="B1:B31"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{177E7BDB-563F-42AB-A73C-0F99520307CA}" name="SubAssy" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{92A988A0-DA22-4149-852C-B3359F095D1F}" name="Category" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{46D3FBA1-E37D-4E1C-A507-269DCBB191E1}" name="Thumbnail" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{0FED2E72-CB9B-4CDA-83D8-951786FBCCFD}" name="Part Name" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{343B71DE-212D-4AC6-BA7B-E87A0ED6CF7E}" name="Part Description" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{7ACFAE8E-B0CC-4BE0-B2A5-D696782525D2}" name="Make/Buy" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{EFF51AC5-98B0-4FBD-B4B1-EB5E97F94CFE}" name="QTY" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{48A1C9A1-88C0-4460-AD9A-529061694BED}" name="Comment" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{8F2F86F6-A8A3-47F3-A7B9-59306EE90E22}" name="Vendor" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{663130C3-175D-45F0-B5E5-15476CC91BDD}" name="Vendor URL" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{EFF51AC5-98B0-4FBD-B4B1-EB5E97F94CFE}" name="QTY" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{48A1C9A1-88C0-4460-AD9A-529061694BED}" name="Comment" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{8F2F86F6-A8A3-47F3-A7B9-59306EE90E22}" name="Vendor" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{663130C3-175D-45F0-B5E5-15476CC91BDD}" name="Vendor URL" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2308,768 +2230,759 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.42578125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="G1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="10">
         <v>104</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="10">
+        <v>104</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="10">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="10">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="11">
+      <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="H6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="H8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="F9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="10">
         <v>1</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="H9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="F11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="H11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="F12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="H12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="F14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="10">
         <v>1</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="H14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="F15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="10">
         <v>1</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="H15" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="F17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="10">
         <v>1</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="H17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="10">
         <v>1</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="H18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="F20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="H20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="F21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="10">
         <v>1</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="H21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="F22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="F23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="10">
         <v>1</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="H23" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="F24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="10">
         <v>1</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="H24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="F26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="10">
         <v>1</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="H26" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="F27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="10">
         <v>1</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="H27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="F29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="10">
         <v>1</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="H29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="F30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="10">
         <v>1</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="H30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="11">
+      <c r="F31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="10">
         <v>1</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="11">
-        <v>1</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="11">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="11">
-        <v>1</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="11">
-        <v>1</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1</v>
-      </c>
-      <c r="L25" s="1" t="s">
+      <c r="H31" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="11">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="11">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="11">
-        <v>26</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="11">
-        <v>104</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="11">
-        <v>104</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H31" s="11">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{DF66BBF8-D82C-4768-A9BF-331219516B8E}"/>
+    <hyperlink ref="H6:H30" r:id="rId2" display="Length defined by Frame Calculator" xr:uid="{38E57F67-9BD5-4781-97FC-88D6381EBBAE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <webPublishItems count="1">
     <webPublishItem id="28674" divId="BOM_Frame_ElecExt_28674" sourceType="sheet" destinationFile="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/BOM_Frame_ElecExt.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_Frame_ElecExt.xlsx
+++ b/bom/BOM_Frame_ElecExt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{49694D92-D7C5-4173-AF81-0D1587F27671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B9C8DDA-BB53-4B9E-9914-CCEFF5194F20}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5A2EA3-25CA-49B6-BE29-481973AD35F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="81">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>Length defined by Frame Calculator</t>
+  </si>
+  <si>
+    <t>Aluminum Extrusion_3030 T-Slot</t>
+  </si>
+  <si>
+    <t>HevORT.com</t>
+  </si>
+  <si>
+    <t>www.HevORT.com</t>
   </si>
 </sst>
 </file>
@@ -453,18 +462,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <i/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -489,6 +486,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -496,6 +496,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1894,16 +1903,16 @@
     <sortCondition descending="1" ref="B1:B31"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{177E7BDB-563F-42AB-A73C-0F99520307CA}" name="SubAssy" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{92A988A0-DA22-4149-852C-B3359F095D1F}" name="Category" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{46D3FBA1-E37D-4E1C-A507-269DCBB191E1}" name="Thumbnail" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{0FED2E72-CB9B-4CDA-83D8-951786FBCCFD}" name="Part Name" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{343B71DE-212D-4AC6-BA7B-E87A0ED6CF7E}" name="Part Description" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{7ACFAE8E-B0CC-4BE0-B2A5-D696782525D2}" name="Make/Buy" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{EFF51AC5-98B0-4FBD-B4B1-EB5E97F94CFE}" name="QTY" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{48A1C9A1-88C0-4460-AD9A-529061694BED}" name="Comment" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{8F2F86F6-A8A3-47F3-A7B9-59306EE90E22}" name="Vendor" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{663130C3-175D-45F0-B5E5-15476CC91BDD}" name="Vendor URL" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{177E7BDB-563F-42AB-A73C-0F99520307CA}" name="SubAssy" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{92A988A0-DA22-4149-852C-B3359F095D1F}" name="Category" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{46D3FBA1-E37D-4E1C-A507-269DCBB191E1}" name="Thumbnail" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{0FED2E72-CB9B-4CDA-83D8-951786FBCCFD}" name="Part Name" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{343B71DE-212D-4AC6-BA7B-E87A0ED6CF7E}" name="Part Description" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{7ACFAE8E-B0CC-4BE0-B2A5-D696782525D2}" name="Make/Buy" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{EFF51AC5-98B0-4FBD-B4B1-EB5E97F94CFE}" name="QTY" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{48A1C9A1-88C0-4460-AD9A-529061694BED}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{8F2F86F6-A8A3-47F3-A7B9-59306EE90E22}" name="Vendor" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{663130C3-175D-45F0-B5E5-15476CC91BDD}" name="Vendor URL" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2233,7 +2242,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -2305,6 +2314,12 @@
       <c r="G2" s="10">
         <v>104</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2328,6 +2343,12 @@
       <c r="G3" s="10">
         <v>104</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2348,6 +2369,12 @@
       <c r="G4" s="10">
         <v>26</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2371,6 +2398,12 @@
       <c r="G5" s="10">
         <v>26</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2385,6 +2418,9 @@
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>60</v>
       </c>
@@ -2393,6 +2429,12 @@
       </c>
       <c r="H6" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>15</v>
@@ -2408,6 +2450,9 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
@@ -2416,6 +2461,12 @@
       </c>
       <c r="H7" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>17</v>
@@ -2431,6 +2482,9 @@
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>60</v>
       </c>
@@ -2439,6 +2493,12 @@
       </c>
       <c r="H8" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>19</v>
@@ -2454,6 +2514,9 @@
       <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>60</v>
       </c>
@@ -2462,6 +2525,12 @@
       </c>
       <c r="H9" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>21</v>
@@ -2477,6 +2546,9 @@
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>60</v>
       </c>
@@ -2485,6 +2557,12 @@
       </c>
       <c r="H10" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>23</v>
@@ -2500,6 +2578,9 @@
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
@@ -2508,6 +2589,12 @@
       </c>
       <c r="H11" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>25</v>
@@ -2523,6 +2610,9 @@
       <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>60</v>
       </c>
@@ -2531,6 +2621,12 @@
       </c>
       <c r="H12" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>27</v>
@@ -2546,6 +2642,9 @@
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>60</v>
       </c>
@@ -2554,6 +2653,12 @@
       </c>
       <c r="H13" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>29</v>
@@ -2569,6 +2674,9 @@
       <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>60</v>
       </c>
@@ -2577,6 +2685,12 @@
       </c>
       <c r="H14" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>31</v>
@@ -2592,6 +2706,9 @@
       <c r="D15" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>60</v>
       </c>
@@ -2600,6 +2717,12 @@
       </c>
       <c r="H15" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>33</v>
@@ -2615,6 +2738,9 @@
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>60</v>
       </c>
@@ -2623,6 +2749,12 @@
       </c>
       <c r="H16" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>35</v>
@@ -2638,6 +2770,9 @@
       <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>60</v>
       </c>
@@ -2646,6 +2781,12 @@
       </c>
       <c r="H17" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>37</v>
@@ -2661,6 +2802,9 @@
       <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>60</v>
       </c>
@@ -2669,6 +2813,12 @@
       </c>
       <c r="H18" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>39</v>
@@ -2684,6 +2834,9 @@
       <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>60</v>
       </c>
@@ -2692,6 +2845,12 @@
       </c>
       <c r="H19" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>41</v>
@@ -2707,6 +2866,9 @@
       <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>60</v>
       </c>
@@ -2715,6 +2877,12 @@
       </c>
       <c r="H20" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>43</v>
@@ -2730,6 +2898,9 @@
       <c r="D21" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>60</v>
       </c>
@@ -2738,6 +2909,12 @@
       </c>
       <c r="H21" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>45</v>
@@ -2753,6 +2930,9 @@
       <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>60</v>
       </c>
@@ -2761,6 +2941,12 @@
       </c>
       <c r="H22" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>47</v>
@@ -2776,6 +2962,9 @@
       <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>60</v>
       </c>
@@ -2784,6 +2973,12 @@
       </c>
       <c r="H23" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>49</v>
@@ -2799,6 +2994,9 @@
       <c r="D24" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>60</v>
       </c>
@@ -2807,6 +3005,12 @@
       </c>
       <c r="H24" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>51</v>
@@ -2822,6 +3026,9 @@
       <c r="D25" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>60</v>
       </c>
@@ -2830,6 +3037,12 @@
       </c>
       <c r="H25" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>53</v>
@@ -2845,6 +3058,9 @@
       <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>60</v>
       </c>
@@ -2853,6 +3069,12 @@
       </c>
       <c r="H26" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>55</v>
@@ -2868,6 +3090,9 @@
       <c r="D27" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>60</v>
       </c>
@@ -2876,6 +3101,12 @@
       </c>
       <c r="H27" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>57</v>
@@ -2891,6 +3122,9 @@
       <c r="D28" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F28" s="2" t="s">
         <v>60</v>
       </c>
@@ -2899,6 +3133,12 @@
       </c>
       <c r="H28" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>61</v>
@@ -2914,6 +3154,9 @@
       <c r="D29" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F29" s="2" t="s">
         <v>60</v>
       </c>
@@ -2922,6 +3165,12 @@
       </c>
       <c r="H29" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>64</v>
@@ -2937,6 +3186,9 @@
       <c r="D30" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F30" s="2" t="s">
         <v>60</v>
       </c>
@@ -2945,6 +3197,12 @@
       </c>
       <c r="H30" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>67</v>
@@ -2960,6 +3218,9 @@
       <c r="D31" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F31" s="2" t="s">
         <v>60</v>
       </c>
@@ -2968,21 +3229,57 @@
       </c>
       <c r="H31" s="11" t="s">
         <v>77</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" xr:uid="{DF66BBF8-D82C-4768-A9BF-331219516B8E}"/>
     <hyperlink ref="H6:H30" r:id="rId2" display="Length defined by Frame Calculator" xr:uid="{38E57F67-9BD5-4781-97FC-88D6381EBBAE}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{B9716F74-564E-4AD1-BCD8-E0964EA9D1DF}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{4D0E0C5E-513A-4415-8AA1-EAEFA793A73C}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{22FC22D0-8C20-4359-943D-CF513A33DC33}"/>
+    <hyperlink ref="J5" r:id="rId6" xr:uid="{023101B5-F6F0-4901-B146-D344B2BEE550}"/>
+    <hyperlink ref="J6" r:id="rId7" xr:uid="{6AB3EFDE-11A7-4CFC-B311-8A405FB8BA1F}"/>
+    <hyperlink ref="J7" r:id="rId8" xr:uid="{EF3B410A-51B2-4ABB-B046-FC25FFF6D3F5}"/>
+    <hyperlink ref="J8" r:id="rId9" xr:uid="{F21C5721-19D0-426D-BEC1-094DC1919F0D}"/>
+    <hyperlink ref="J9" r:id="rId10" xr:uid="{1504AE74-44B9-4FF3-98EC-3C0DE695AC91}"/>
+    <hyperlink ref="J10" r:id="rId11" xr:uid="{E362DFE9-55E3-4613-B6CA-0A170BBA4FBC}"/>
+    <hyperlink ref="J11" r:id="rId12" xr:uid="{57917081-2A8C-4754-8079-4B0F2C954E91}"/>
+    <hyperlink ref="J12" r:id="rId13" xr:uid="{8A2C0D00-7A05-4162-A257-B5EBEEA64E24}"/>
+    <hyperlink ref="J13" r:id="rId14" xr:uid="{3905666D-9352-49B9-B2C8-915B95D185FB}"/>
+    <hyperlink ref="J14" r:id="rId15" xr:uid="{C430F32D-2E0C-4442-ACFA-BF3E88C3698E}"/>
+    <hyperlink ref="J15" r:id="rId16" xr:uid="{D52DCAD5-57A2-42B0-A303-6638E56D1C0E}"/>
+    <hyperlink ref="J16" r:id="rId17" xr:uid="{FBE12D72-869B-47A4-8107-20939811600E}"/>
+    <hyperlink ref="J17" r:id="rId18" xr:uid="{F40BA8C2-0601-43F7-AB03-B3E4E9099923}"/>
+    <hyperlink ref="J18" r:id="rId19" xr:uid="{4799022A-F52E-4A14-9EED-6068E5D078FF}"/>
+    <hyperlink ref="J19" r:id="rId20" xr:uid="{9D52CD98-74F9-4B94-BD0D-65384DB79023}"/>
+    <hyperlink ref="J20" r:id="rId21" xr:uid="{DD7989F2-8B64-4CD2-B4FD-D6B0BF5A6000}"/>
+    <hyperlink ref="J21" r:id="rId22" xr:uid="{8A0488D2-31F5-4644-AF6E-AF6807480307}"/>
+    <hyperlink ref="J22" r:id="rId23" xr:uid="{6C904CFE-C164-47B4-B0D7-E896752037FD}"/>
+    <hyperlink ref="J23" r:id="rId24" xr:uid="{EDBE4855-8E08-49FD-AFAF-72A7ED6AF371}"/>
+    <hyperlink ref="J24" r:id="rId25" xr:uid="{CAC2B7B5-CA44-4A85-ACF2-B094DA599BB0}"/>
+    <hyperlink ref="J25" r:id="rId26" xr:uid="{E2FAB639-7579-402B-BDAA-C2C777C82EA7}"/>
+    <hyperlink ref="J26" r:id="rId27" xr:uid="{241F90C6-647E-467A-A9D6-69C238257516}"/>
+    <hyperlink ref="J27" r:id="rId28" xr:uid="{ADA69A27-CE85-4E63-A8AF-88E5590BD9B8}"/>
+    <hyperlink ref="J28" r:id="rId29" xr:uid="{33E06574-8486-436A-8622-AE3588B20CC8}"/>
+    <hyperlink ref="J29" r:id="rId30" xr:uid="{D37DDD37-7791-493C-9C13-044CF73C918A}"/>
+    <hyperlink ref="J30" r:id="rId31" xr:uid="{132E4BBC-F214-4FA0-B6FD-3826AF1205B1}"/>
+    <hyperlink ref="J31" r:id="rId32" xr:uid="{9B56A7B0-55B2-4986-B5EF-896E9A5A4BFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId33"/>
+  <drawing r:id="rId34"/>
   <webPublishItems count="1">
     <webPublishItem id="28674" divId="BOM_Frame_ElecExt_28674" sourceType="sheet" destinationFile="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/BOM_Frame_ElecExt.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId35"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_Frame_ElecExt.xlsx
+++ b/bom/BOM_Frame_ElecExt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5A2EA3-25CA-49B6-BE29-481973AD35F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{7487F415-AC91-465D-8A7E-C3722D21B405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2245,22 +2245,22 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="10" customWidth="1"/>
     <col min="8" max="8" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31.42578125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="9" width="21.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.453125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>74</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>74</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>74</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>74</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>74</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>74</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>74</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>74</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>74</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>74</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>74</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>74</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>74</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>74</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>74</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>74</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>74</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>74</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>74</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>74</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>74</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>74</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>74</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>74</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>74</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>74</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>74</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>74</v>
       </c>

--- a/bom/BOM_Frame_ElecExt.xlsx
+++ b/bom/BOM_Frame_ElecExt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{7487F415-AC91-465D-8A7E-C3722D21B405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="114_{7487F415-AC91-465D-8A7E-C3722D21B405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FD01CB23-1E28-472A-BF02-AE1377325493}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="From Fusion 360" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="83">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>www.HevORT.com</t>
+  </si>
+  <si>
+    <t>** Caution ** It is assumed that the L Joints you order have grub screws included.</t>
+  </si>
+  <si>
+    <t>L Joint with grub screws **.</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -454,6 +460,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2242,7 +2251,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
@@ -2363,11 +2372,17 @@
       <c r="D4" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="E4" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="10">
         <v>26</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>79</v>
@@ -3276,7 +3291,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId33"/>
   <drawing r:id="rId34"/>
   <webPublishItems count="1">
-    <webPublishItem id="28674" divId="BOM_Frame_ElecExt_28674" sourceType="sheet" destinationFile="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/BOM_Frame_ElecExt.htm" autoRepublish="1"/>
+    <webPublishItem id="28674" divId="BOM_Frame_ElecExt_28674" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_Frame_ElecExt.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
     <tablePart r:id="rId35"/>
